--- a/biology/Zoologie/Craugastor_epochthidius/Craugastor_epochthidius.xlsx
+++ b/biology/Zoologie/Craugastor_epochthidius/Craugastor_epochthidius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craugastor epochthidius est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craugastor epochthidius est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Honduras[1]. Elle se rencontre de 150 à 1 450 m d'altitude dans la sierra de Agalta, sierra Punta Piedra et sierra de Río Tinto, dans le département d'Olancho et les bassins des río Paulaya et río Plátano dans le Département de Colón (Honduras).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Honduras. Elle se rencontre de 150 à 1 450 m d'altitude dans la sierra de Agalta, sierra Punta Piedra et sierra de Río Tinto, dans le département d'Olancho et les bassins des río Paulaya et río Plátano dans le Département de Colón (Honduras).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>McCranie &amp; Wilson, 1997 : A review of the Eleutherodactylus milesi-like frogs (Anura, Leptodactylidae) from Honduras with the description of four new species. Alytes vol. 14, no 4, p. 147-174.</t>
         </is>
